--- a/Desarrollo/SGDC/Documentos/DocumentoSprintBacklog/SGDC_SP.xlsx
+++ b/Desarrollo/SGDC/Documentos/DocumentoSprintBacklog/SGDC_SP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t xml:space="preserve">Sprint Backlog </t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Ccora Quispe Holiver Jhunior</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>PBI-02</t>
@@ -304,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -341,13 +344,23 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
@@ -587,8 +600,8 @@
     <col customWidth="1" min="13" max="13" width="2.38"/>
     <col customWidth="1" min="14" max="15" width="2.5"/>
     <col customWidth="1" min="16" max="16" width="2.38"/>
-    <col customWidth="1" min="17" max="17" width="2.13"/>
-    <col customWidth="1" min="18" max="19" width="2.38"/>
+    <col customWidth="1" min="17" max="18" width="2.13"/>
+    <col customWidth="1" min="19" max="20" width="2.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -610,9 +623,10 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="4"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="3"/>
       <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
@@ -635,9 +649,10 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="8"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="3"/>
       <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
@@ -660,9 +675,10 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="8"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="3"/>
       <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
@@ -685,9 +701,10 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="8"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="3"/>
       <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
@@ -724,7 +741,8 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
@@ -761,236 +779,284 @@
       <c r="P6" s="9">
         <v>28.0</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="14">
         <v>29.0</v>
       </c>
+      <c r="R6" s="15">
+        <v>30.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
     </row>
     <row r="8">
-      <c r="A8" s="17"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18">
+        <v>0.85</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
     </row>
     <row r="9" ht="15.0" customHeight="1">
-      <c r="A9" s="17"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="18">
+        <v>0.85</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="E11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="21"/>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="17"/>
-      <c r="B12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="18">
+        <v>0.85</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
     </row>
     <row r="13">
-      <c r="A13" s="17"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
+      <c r="C13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
     </row>
     <row r="14">
-      <c r="A14" s="17"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
+      <c r="C14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="18">
+        <v>0.85</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
     </row>
     <row r="15">
       <c r="A15" s="13"/>
       <c r="B15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
+      <c r="C15" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
     </row>
     <row r="17">
       <c r="B17" s="4"/>
@@ -1049,14 +1115,14 @@
     <mergeCell ref="A7:A15"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="C2:Q2"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="C4:Q4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="I5:Q5"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="C2:R2"/>
+    <mergeCell ref="C3:R3"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="I5:R5"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
